--- a/Quality_Scoring_Functions/Loss/TF_Loss/AlphaFold_TF.xlsx
+++ b/Quality_Scoring_Functions/Loss/TF_Loss/AlphaFold_TF.xlsx
@@ -1,37 +1,237 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>DockQ</t>
+  </si>
+  <si>
+    <t>Alphafold ranked</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>7R2M</t>
+  </si>
+  <si>
+    <t>8EBL</t>
+  </si>
+  <si>
+    <t>7UW2</t>
+  </si>
+  <si>
+    <t>7ZX4</t>
+  </si>
+  <si>
+    <t>7UE2</t>
+  </si>
+  <si>
+    <t>8CCW</t>
+  </si>
+  <si>
+    <t>8CIR</t>
+  </si>
+  <si>
+    <t>8EQ5</t>
+  </si>
+  <si>
+    <t>8FXQ</t>
+  </si>
+  <si>
+    <t>7UDK</t>
+  </si>
+  <si>
+    <t>8IA4</t>
+  </si>
+  <si>
+    <t>8d51</t>
+  </si>
+  <si>
+    <t>8AFI</t>
+  </si>
+  <si>
+    <t>7Y9C</t>
+  </si>
+  <si>
+    <t>8CZK</t>
+  </si>
+  <si>
+    <t>8C2P</t>
+  </si>
+  <si>
+    <t>7Z6U</t>
+  </si>
+  <si>
+    <t>7SXJ</t>
+  </si>
+  <si>
+    <t>8AHS</t>
+  </si>
+  <si>
+    <t>8BFT</t>
+  </si>
+  <si>
+    <t>8I3G</t>
+  </si>
+  <si>
+    <t>8OEP</t>
+  </si>
+  <si>
+    <t>7zw4</t>
+  </si>
+  <si>
+    <t>8B58</t>
+  </si>
+  <si>
+    <t>7Z5L</t>
+  </si>
+  <si>
+    <t>7SQA</t>
+  </si>
+  <si>
+    <t>7XFG</t>
+  </si>
+  <si>
+    <t>7TO9</t>
+  </si>
+  <si>
+    <t>8BR9</t>
+  </si>
+  <si>
+    <t>8DVL</t>
+  </si>
+  <si>
+    <t>7Y8F</t>
+  </si>
+  <si>
+    <t>8CZ9</t>
+  </si>
+  <si>
+    <t>8A68</t>
+  </si>
+  <si>
+    <t>7XV1</t>
+  </si>
+  <si>
+    <t>8DGM</t>
+  </si>
+  <si>
+    <t>8CK5</t>
+  </si>
+  <si>
+    <t>8F8Z</t>
+  </si>
+  <si>
+    <t>7QOX</t>
+  </si>
+  <si>
+    <t>8C3H</t>
+  </si>
+  <si>
+    <t>8ESE</t>
+  </si>
+  <si>
+    <t>7Z7C</t>
+  </si>
+  <si>
+    <t>7SXF</t>
+  </si>
+  <si>
+    <t>7V1A</t>
+  </si>
+  <si>
+    <t>7WQQ</t>
+  </si>
+  <si>
+    <t>7PRX</t>
+  </si>
+  <si>
+    <t>7udl</t>
+  </si>
+  <si>
+    <t>7ZAX</t>
+  </si>
+  <si>
+    <t>8D7P</t>
+  </si>
+  <si>
+    <t>7x8g</t>
+  </si>
+  <si>
+    <t>8IA5</t>
+  </si>
+  <si>
+    <t>7XTY</t>
+  </si>
+  <si>
+    <t>8HLO</t>
+  </si>
+  <si>
+    <t>8DWK</t>
+  </si>
+  <si>
+    <t>8fk3</t>
+  </si>
+  <si>
+    <t>8HDJ</t>
+  </si>
+  <si>
+    <t>7yue</t>
+  </si>
+  <si>
+    <t>7UI8</t>
+  </si>
+  <si>
+    <t>8ARE</t>
+  </si>
+  <si>
+    <t>7QWV</t>
+  </si>
+  <si>
+    <t>8hep</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +246,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1002 +562,868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>File Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DockQ</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Alphafold ranked</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7R2M</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>0.09900682327501424</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.04253447276452803</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.05647235051048621</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>8EBL</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>0.4807674503633199</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.1674262417288233</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.3133412086344966</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>7UW2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>0.9784403389174133</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.9570604492140338</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.02137988970337956</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>7ZX4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>0.8549068788470966</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.8549068788470966</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7UE2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>0.775423449270075</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.480288060350161</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.295135388919914</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8CCW</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>0.775867799111062</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.6758342888844995</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.1000335102265625</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>8CIR</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>0.1066206569117234</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.05743756047315588</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.04918309643856752</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8EQ5</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>0.9021392532973412</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.8805504610604364</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0215887922369048</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8FXQ</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>0.9392358441412659</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.9370175771907533</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.002218266950512637</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>7UDK</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>0.8784985847155286</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.8725510573391769</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.005947527376351625</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>8IA4</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>0.06035063204308103</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.04761739967783799</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.01273323236524304</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>8d51</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>0.7530462760039761</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.7364684116115717</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.01657786439240438</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>8AFI</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>0.914019603503827</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.9095255810276005</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.004494022476226545</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>7Y9C</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>0.2869209288650298</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1429833306949457</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.1439375981700841</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>8CZK</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>0.8061088207956996</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8036203808466227</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.002488439949076882</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>8C2P</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>0.3859791572660614</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.08803950804513157</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.2979396492209299</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>7Z6U</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>0.7785874234230925</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.7680332937674338</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.01055412965565872</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>7SXJ</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
         <v>0.9341493469338937</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.9330789454856104</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.001070401448283298</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>8AHS</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
         <v>0.7411584681917028</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.07113909462053776</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.670019373571165</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>8BFT</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
         <v>0.3102767035919789</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.2420775003535493</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.0681992032384296</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>8I3G</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
         <v>0.5461171951985181</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.5369692355481678</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.009147959650350312</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>8OEP</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>0.7255160584395961</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.6572307786776559</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.06828527976194021</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>7zw4</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
         <v>0.7503442599409614</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.649922862029067</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.1004213979118944</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>8B58</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
         <v>0.5935298143835662</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.2735438041634076</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.3199860102201586</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>7Z5L</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
         <v>0.8291160701498033</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.7188255453524861</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.1102905247973172</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>7SQA</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
         <v>0.8915994671875218</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.7237765777506374</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.1678228894368844</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>7XFG</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
         <v>0.3240957751831455</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.2058832693668171</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.1182125058163284</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7TO9</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
         <v>0.4945863530858124</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.3795119745478417</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.1150743785379707</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>8BR9</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
         <v>0.8820193678658851</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.8272477937056326</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.05477157416025247</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>8DVL</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
         <v>0.3818323967202482</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1640054775015387</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.2178269192187095</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>7Y8F</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
         <v>0.9590584934221257</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.9437292900376212</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.0153292033845045</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>8CZ9</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
         <v>0.9368250024866959</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.9162580020190315</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.02056700046766435</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>8A68</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
         <v>0.9592657233980918</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.9108410528444514</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.04842467055364041</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>7XV1</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
         <v>0.8477770242305024</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.8046063858686381</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.0431706383618643</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>8DGM</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
         <v>0.4504633270996076</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.06644754470611432</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.3840157823934933</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>8CK5</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
         <v>0.9122026217212292</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.8297778228412162</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.08242479888001308</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>8F8Z</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
         <v>0.2930850900455712</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.2846264655633816</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.008458624482189592</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>7QOX</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
         <v>0.604059657555032</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.5579843401775664</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.04607531737746562</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>8C3H</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
         <v>0.9556440251105972</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.9302494559274986</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.02539456918309857</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>8ESE</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
         <v>0.8943310660466443</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.8880950582948163</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.006236007751827977</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>7Z7C</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
         <v>0.524768385375135</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.4710261996877005</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.05374218568743455</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>7SXF</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
         <v>0.8612436471750056</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.7311059358594107</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.1301377113155948</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>7V1A</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
         <v>0.6148726055771447</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.4169939319079628</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.1978786736691819</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>7WQQ</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
         <v>0.9767289290878832</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.9662448502388213</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.01048407884906188</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>7PRX</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
         <v>0.7735898200065972</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.7579590982407877</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.01563072176580949</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>7udl</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
         <v>0.5851460085534856</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.2749668930538177</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.3101791154996679</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>7ZAX</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
         <v>0.4364677327621214</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.4259140982327156</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.01055363452940583</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>8D7P</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
         <v>0.6413182909900514</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.558214438619192</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.08310385237085949</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>7x8g</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
         <v>0.9596034872386122</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.7461269043239763</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.2134765829146359</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>8IA5</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
         <v>0.3451835961273782</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.191065700695069</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.1541178954323092</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>7XTY</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
         <v>0.8131388615430847</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.7973873628404911</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.01575149870259362</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>8HLO</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
         <v>0.5907442670565922</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.5464083228360442</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.04433594422054798</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>8DWK</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
         <v>0.3834232076433566</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.3607257538479249</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.0226974537954317</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>8fk3</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
         <v>0.9174313971021085</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.8959186846914249</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.02151271241068364</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>8HDJ</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
         <v>0.9347678994505086</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.926001104004019</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.008766795446489617</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>7yue</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
         <v>0.9339969122547229</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.3667122446453908</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.5672846676093322</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>7UI8</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
         <v>0.8509138657056035</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.8337965713808387</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.01711729432476472</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>8ARE</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
         <v>0.7272798282592445</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.6493056983091567</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.07797412995008779</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>7QWV</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
         <v>0.8126482542246105</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.7858973972815603</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.02675085694305024</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>8hep</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
         <v>0.7187531126790683</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.7094183307563379</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.009334781922730406</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>